--- a/Benchmark-Models/Hass_PONE2017/General_info.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/General_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="254">
   <si>
     <t>Model:</t>
   </si>
@@ -26,7 +26,7 @@
     <t>FACTS</t>
   </si>
   <si>
-    <t>The model contains 221 data points, 62 free parameters and 17 experimental conditions</t>
+    <t>The model contains 221 data points, 49 free parameters and 17 experimental conditions</t>
   </si>
   <si>
     <t>Errors are assumend as additive Gaussian errors</t>
@@ -182,34 +182,34 @@
     <t>log10(offset_pSFK_ExponlyInh)</t>
   </si>
   <si>
-    <t>log10(offset_tApo_ExpEC50R)</t>
+    <t>offset_tApo_ExpEC50R</t>
   </si>
   <si>
     <t>log10(offset_tApo_ExpReelinStim)</t>
   </si>
   <si>
-    <t>log10(offset_tApo_ExpReelin_DR)</t>
-  </si>
-  <si>
-    <t>log10(offset_tApo_ExpReelin_Inh)</t>
-  </si>
-  <si>
-    <t>log10(offset_tApo_ExponlyInh)</t>
-  </si>
-  <si>
-    <t>log10(offset_tSFK_ExpEC50R)</t>
+    <t>offset_tApo_ExpReelin_DR</t>
+  </si>
+  <si>
+    <t>offset_tApo_ExpReelin_Inh</t>
+  </si>
+  <si>
+    <t>offset_tApo_ExponlyInh</t>
+  </si>
+  <si>
+    <t>offset_tSFK_ExpEC50R</t>
   </si>
   <si>
     <t>log10(offset_tSFK_ExpReelinStim)</t>
   </si>
   <si>
-    <t>log10(offset_tSFK_ExpReelin_DR)</t>
-  </si>
-  <si>
-    <t>log10(offset_tSFK_ExpReelin_Inh)</t>
-  </si>
-  <si>
-    <t>log10(offset_tSFK_ExponlyInh)</t>
+    <t>offset_tSFK_ExpReelin_DR</t>
+  </si>
+  <si>
+    <t>offset_tSFK_ExpReelin_Inh</t>
+  </si>
+  <si>
+    <t>offset_tSFK_ExponlyInh</t>
   </si>
   <si>
     <t>log10(perc_mes)</t>
@@ -275,34 +275,34 @@
     <t>log10(scale_pSFK_ExponlyInh)</t>
   </si>
   <si>
-    <t>log10(scale_tApo__ExpEC50R)</t>
+    <t>scale_tApo__ExpEC50R</t>
   </si>
   <si>
     <t>log10(scale_tApo__ExpReelinStim)</t>
   </si>
   <si>
-    <t>log10(scale_tApo__ExpReelin_DR)</t>
-  </si>
-  <si>
-    <t>log10(scale_tApo__ExpReelin_Inh)</t>
-  </si>
-  <si>
-    <t>log10(scale_tApo__ExponlyInh)</t>
-  </si>
-  <si>
-    <t>log10(scale_tSFK_ExpEC50R)</t>
+    <t>scale_tApo__ExpReelin_DR</t>
+  </si>
+  <si>
+    <t>scale_tApo__ExpReelin_Inh</t>
+  </si>
+  <si>
+    <t>scale_tApo__ExponlyInh</t>
+  </si>
+  <si>
+    <t>scale_tSFK_ExpEC50R</t>
   </si>
   <si>
     <t>log10(scale_tSFK_ExpReelinStim)</t>
   </si>
   <si>
-    <t>log10(scale_tSFK_ExpReelin_DR)</t>
-  </si>
-  <si>
-    <t>log10(scale_tSFK_ExpReelin_Inh)</t>
-  </si>
-  <si>
-    <t>log10(scale_tSFK_ExponlyInh)</t>
+    <t>scale_tSFK_ExpReelin_DR</t>
+  </si>
+  <si>
+    <t>scale_tSFK_ExpReelin_Inh</t>
+  </si>
+  <si>
+    <t>scale_tSFK_ExponlyInh</t>
   </si>
   <si>
     <t>Conditions</t>
@@ -431,12 +431,6 @@
     <t>offset_pSFK_ExponlyInh</t>
   </si>
   <si>
-    <t>offset_tApo_ExponlyInh</t>
-  </si>
-  <si>
-    <t>offset_tSFK_ExponlyInh</t>
-  </si>
-  <si>
     <t>scale_Dab1_ExponlyInh</t>
   </si>
   <si>
@@ -449,12 +443,6 @@
     <t>scale_pSFK_ExponlyInh</t>
   </si>
   <si>
-    <t>scale_tApo__ExponlyInh</t>
-  </si>
-  <si>
-    <t>scale_tSFK_ExponlyInh</t>
-  </si>
-  <si>
     <t>Data file 3</t>
   </si>
   <si>
@@ -470,12 +458,6 @@
     <t>offset_pSFK_ExpReelin_Inh</t>
   </si>
   <si>
-    <t>offset_tApo_ExpReelin_Inh</t>
-  </si>
-  <si>
-    <t>offset_tSFK_ExpReelin_Inh</t>
-  </si>
-  <si>
     <t>scale_Dab1_ExpReelin_Inh</t>
   </si>
   <si>
@@ -488,12 +470,6 @@
     <t>scale_pSFK_ExpReelin_Inh</t>
   </si>
   <si>
-    <t>scale_tApo__ExpReelin_Inh</t>
-  </si>
-  <si>
-    <t>scale_tSFK_ExpReelin_Inh</t>
-  </si>
-  <si>
     <t>Data file 4</t>
   </si>
   <si>
@@ -509,12 +485,6 @@
     <t>offset_pSFK_ExpReelin_DR</t>
   </si>
   <si>
-    <t>offset_tApo_ExpReelin_DR</t>
-  </si>
-  <si>
-    <t>offset_tSFK_ExpReelin_DR</t>
-  </si>
-  <si>
     <t>scale_Dab1_ExpReelin_DR</t>
   </si>
   <si>
@@ -527,12 +497,6 @@
     <t>scale_pSFK_ExpReelin_DR</t>
   </si>
   <si>
-    <t>scale_tApo__ExpReelin_DR</t>
-  </si>
-  <si>
-    <t>scale_tSFK_ExpReelin_DR</t>
-  </si>
-  <si>
     <t>Data file 5</t>
   </si>
   <si>
@@ -626,12 +590,6 @@
     <t>offset_pSFK_ExpEC50R</t>
   </si>
   <si>
-    <t>offset_tApo_ExpEC50R</t>
-  </si>
-  <si>
-    <t>offset_tSFK_ExpEC50R</t>
-  </si>
-  <si>
     <t>scale_Dab1_ExpEC50R</t>
   </si>
   <si>
@@ -642,12 +600,6 @@
   </si>
   <si>
     <t>scale_pSFK_ExpEC50R</t>
-  </si>
-  <si>
-    <t>scale_tApo__ExpEC50R</t>
-  </si>
-  <si>
-    <t>scale_tSFK_ExpEC50R</t>
   </si>
   <si>
     <t>General transformations</t>
@@ -914,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>229.60575536449403</v>
+        <v>229.6042430290394</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +981,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.9091852110910525</v>
+        <v>-1.9090313366723972</v>
       </c>
       <c r="C2" t="n">
         <v>-5.0</v>
@@ -1049,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39866159357955466</v>
+        <v>0.3974210998175298</v>
       </c>
       <c r="C3" t="n">
         <v>-5.0</v>
@@ -1069,7 +1021,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>3.309613064683408</v>
+        <v>3.2917996053564904</v>
       </c>
       <c r="C4" t="n">
         <v>-2.0</v>
@@ -1109,7 +1061,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0618974668836354</v>
+        <v>2.0451108261852493</v>
       </c>
       <c r="C6" t="n">
         <v>-5.0</v>
@@ -1129,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>5.215268349787903</v>
+        <v>5.20030875684372</v>
       </c>
       <c r="C7" t="n">
         <v>-2.0</v>
@@ -1149,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.8681345860818575</v>
+        <v>-1.859010847742131</v>
       </c>
       <c r="C8" t="n">
         <v>-5.0</v>
@@ -1169,7 +1121,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.2216361204978212</v>
+        <v>-1.2251780863330926</v>
       </c>
       <c r="C9" t="n">
         <v>-5.0</v>
@@ -1189,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3138862661587022</v>
+        <v>-0.327238616137255</v>
       </c>
       <c r="C10" t="n">
         <v>-10.0</v>
@@ -1229,7 +1181,7 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.07461702258176</v>
+        <v>-4.057943532362876</v>
       </c>
       <c r="C12" t="n">
         <v>-5.0</v>
@@ -1249,7 +1201,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.37418428956236827</v>
+        <v>-0.37044521208348896</v>
       </c>
       <c r="C13" t="n">
         <v>-5.0</v>
@@ -1349,7 +1301,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="n">
-        <v>0.23260087447302535</v>
+        <v>0.2321847705263443</v>
       </c>
       <c r="C18" t="n">
         <v>-5.0</v>
@@ -1369,7 +1321,7 @@
         <v>41</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03217063445716651</v>
+        <v>0.032025177509628584</v>
       </c>
       <c r="C19" t="n">
         <v>-5.0</v>
@@ -1389,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="B20" t="n">
-        <v>0.15338068725870416</v>
+        <v>0.15332883341420248</v>
       </c>
       <c r="C20" t="n">
         <v>-5.0</v>
@@ -1409,7 +1361,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.395490914513444</v>
+        <v>-0.39558942250110296</v>
       </c>
       <c r="C21" t="n">
         <v>-5.0</v>
@@ -1429,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3622828671530817</v>
+        <v>-0.3622828729075596</v>
       </c>
       <c r="C22" t="n">
         <v>-5.0</v>
@@ -1449,7 +1401,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.39024585014874674</v>
+        <v>-0.3903955906723691</v>
       </c>
       <c r="C23" t="n">
         <v>-5.0</v>
@@ -1469,7 +1421,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.8534325284751341</v>
+        <v>-0.854222634388138</v>
       </c>
       <c r="C24" t="n">
         <v>-5.0</v>
@@ -1489,7 +1441,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9737967067465665</v>
+        <v>-0.9758090489825013</v>
       </c>
       <c r="C25" t="n">
         <v>-5.0</v>
@@ -1509,7 +1461,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.1542773156765387</v>
+        <v>-3.1544231358947243</v>
       </c>
       <c r="C26" t="n">
         <v>-5.0</v>
@@ -1529,7 +1481,7 @@
         <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9091897879088129</v>
+        <v>-0.9091894489769383</v>
       </c>
       <c r="C27" t="n">
         <v>-5.0</v>
@@ -1549,7 +1501,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>0.014724042329828997</v>
+        <v>0.014727442495600436</v>
       </c>
       <c r="C28" t="n">
         <v>-5.0</v>
@@ -1569,7 +1521,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="n">
-        <v>0.22523118883883372</v>
+        <v>0.22523169052553385</v>
       </c>
       <c r="C29" t="n">
         <v>-5.0</v>
@@ -1589,7 +1541,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05542362674799612</v>
+        <v>0.05536255798709899</v>
       </c>
       <c r="C30" t="n">
         <v>-5.0</v>
@@ -1609,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06152320658652158</v>
+        <v>0.06115224187735734</v>
       </c>
       <c r="C31" t="n">
         <v>-5.0</v>
@@ -1629,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0871514162812031</v>
+        <v>0.08715138257979409</v>
       </c>
       <c r="C32" t="n">
         <v>-5.0</v>
@@ -1649,16 +1601,16 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" t="n">
-        <v>-9.0</v>
+        <v>-5.0</v>
       </c>
       <c r="D33" t="n">
         <v>3.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
@@ -1669,7 +1621,7 @@
         <v>56</v>
       </c>
       <c r="B34" t="n">
-        <v>0.33099039618752696</v>
+        <v>0.33100130484652973</v>
       </c>
       <c r="C34" t="n">
         <v>-5.0</v>
@@ -1689,16 +1641,16 @@
         <v>57</v>
       </c>
       <c r="B35" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.0</v>
+        <v>-5.0</v>
       </c>
       <c r="D35" t="n">
         <v>3.0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
@@ -1709,16 +1661,16 @@
         <v>58</v>
       </c>
       <c r="B36" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C36" t="n">
-        <v>-9.0</v>
+        <v>-5.0</v>
       </c>
       <c r="D36" t="n">
         <v>3.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="s">
         <v>27</v>
@@ -1729,16 +1681,16 @@
         <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>-8.0</v>
+        <v>0.0</v>
       </c>
       <c r="C37" t="n">
-        <v>-9.0</v>
+        <v>-5.0</v>
       </c>
       <c r="D37" t="n">
         <v>3.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
@@ -1749,7 +1701,7 @@
         <v>60</v>
       </c>
       <c r="B38" t="n">
-        <v>2.42101799624945</v>
+        <v>0.0</v>
       </c>
       <c r="C38" t="n">
         <v>-5.0</v>
@@ -1758,10 +1710,10 @@
         <v>3.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
@@ -1769,10 +1721,10 @@
         <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.5440865494166716</v>
+        <v>-0.5440865516351664</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.0</v>
+        <v>-3.0</v>
       </c>
       <c r="D39" t="n">
         <v>3.0</v>
@@ -1781,7 +1733,7 @@
         <v>1.0</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1789,7 +1741,7 @@
         <v>62</v>
       </c>
       <c r="B40" t="n">
-        <v>1.886780857107838</v>
+        <v>0.0</v>
       </c>
       <c r="C40" t="n">
         <v>-5.0</v>
@@ -1798,10 +1750,10 @@
         <v>3.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1809,7 +1761,7 @@
         <v>63</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.0778226391456176</v>
+        <v>0.0</v>
       </c>
       <c r="C41" t="n">
         <v>-5.0</v>
@@ -1818,10 +1770,10 @@
         <v>3.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -1829,7 +1781,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>-3.701081201895131</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
         <v>-5.0</v>
@@ -1838,10 +1790,10 @@
         <v>3.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -1849,7 +1801,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.2796875734853264</v>
+        <v>-1.2847495974470635</v>
       </c>
       <c r="C43" t="n">
         <v>-5.0</v>
@@ -1869,7 +1821,7 @@
         <v>66</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2016860244679267</v>
+        <v>0.20074328053381926</v>
       </c>
       <c r="C44" t="n">
         <v>-5.0</v>
@@ -1889,7 +1841,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5747656492816609</v>
+        <v>0.5747710411626841</v>
       </c>
       <c r="C45" t="n">
         <v>-5.0</v>
@@ -1909,7 +1861,7 @@
         <v>68</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2831561583136335</v>
+        <v>0.2831899422089501</v>
       </c>
       <c r="C46" t="n">
         <v>-5.0</v>
@@ -1929,7 +1881,7 @@
         <v>69</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3664511388747588</v>
+        <v>0.3664331045963305</v>
       </c>
       <c r="C47" t="n">
         <v>-5.0</v>
@@ -1949,7 +1901,7 @@
         <v>70</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2781198227467045</v>
+        <v>0.278100048402624</v>
       </c>
       <c r="C48" t="n">
         <v>-5.0</v>
@@ -1969,7 +1921,7 @@
         <v>71</v>
       </c>
       <c r="B49" t="n">
-        <v>2.655634745624538</v>
+        <v>2.643671409857573</v>
       </c>
       <c r="C49" t="n">
         <v>-5.0</v>
@@ -1989,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="B50" t="n">
-        <v>2.4062732322595095</v>
+        <v>2.3936506302507614</v>
       </c>
       <c r="C50" t="n">
         <v>-5.0</v>
@@ -2009,7 +1961,7 @@
         <v>73</v>
       </c>
       <c r="B51" t="n">
-        <v>2.070542272704556</v>
+        <v>2.0584444200157126</v>
       </c>
       <c r="C51" t="n">
         <v>-5.0</v>
@@ -2029,7 +1981,7 @@
         <v>74</v>
       </c>
       <c r="B52" t="n">
-        <v>5.047949021254831</v>
+        <v>5.032015173467527</v>
       </c>
       <c r="C52" t="n">
         <v>-5.0</v>
@@ -2049,7 +2001,7 @@
         <v>75</v>
       </c>
       <c r="B53" t="n">
-        <v>4.178637411442202</v>
+        <v>4.161966300694493</v>
       </c>
       <c r="C53" t="n">
         <v>-5.0</v>
@@ -2069,7 +2021,7 @@
         <v>76</v>
       </c>
       <c r="B54" t="n">
-        <v>2.5999347298105904</v>
+        <v>2.5860252177892775</v>
       </c>
       <c r="C54" t="n">
         <v>-5.0</v>
@@ -2089,7 +2041,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="n">
-        <v>2.532905709448123</v>
+        <v>2.5201908311931867</v>
       </c>
       <c r="C55" t="n">
         <v>-5.0</v>
@@ -2109,7 +2061,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="n">
-        <v>2.4801272401075454</v>
+        <v>2.468118556361292</v>
       </c>
       <c r="C56" t="n">
         <v>-5.0</v>
@@ -2129,7 +2081,7 @@
         <v>79</v>
       </c>
       <c r="B57" t="n">
-        <v>3.439822566039214</v>
+        <v>3.423445823316014</v>
       </c>
       <c r="C57" t="n">
         <v>-5.0</v>
@@ -2149,7 +2101,7 @@
         <v>80</v>
       </c>
       <c r="B58" t="n">
-        <v>4.739309800978817</v>
+        <v>4.722637645470436</v>
       </c>
       <c r="C58" t="n">
         <v>-5.0</v>
@@ -2169,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="B59" t="n">
-        <v>2.6215485470734254</v>
+        <v>2.6043390839539513</v>
       </c>
       <c r="C59" t="n">
         <v>-5.0</v>
@@ -2189,7 +2141,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="n">
-        <v>2.987517102702636</v>
+        <v>2.971013442437344</v>
       </c>
       <c r="C60" t="n">
         <v>-5.0</v>
@@ -2209,7 +2161,7 @@
         <v>83</v>
       </c>
       <c r="B61" t="n">
-        <v>2.97328895848503</v>
+        <v>2.9566769984488195</v>
       </c>
       <c r="C61" t="n">
         <v>-5.0</v>
@@ -2229,7 +2181,7 @@
         <v>84</v>
       </c>
       <c r="B62" t="n">
-        <v>4.480308101429956</v>
+        <v>4.463806657156429</v>
       </c>
       <c r="C62" t="n">
         <v>-5.0</v>
@@ -2249,7 +2201,7 @@
         <v>85</v>
       </c>
       <c r="B63" t="n">
-        <v>4.014711320453639</v>
+        <v>3.9980403181193624</v>
       </c>
       <c r="C63" t="n">
         <v>-5.0</v>
@@ -2269,19 +2221,19 @@
         <v>86</v>
       </c>
       <c r="B64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C64" t="n">
         <v>-5.0</v>
       </c>
       <c r="D64" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
@@ -2289,7 +2241,7 @@
         <v>87</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.02529532362663468</v>
+        <v>-0.025330202186940445</v>
       </c>
       <c r="C65" t="n">
         <v>-5.0</v>
@@ -2309,19 +2261,19 @@
         <v>88</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C66" t="n">
         <v>-5.0</v>
       </c>
       <c r="D66" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -2329,19 +2281,19 @@
         <v>89</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C67" t="n">
         <v>-5.0</v>
       </c>
       <c r="D67" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
@@ -2349,19 +2301,19 @@
         <v>90</v>
       </c>
       <c r="B68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C68" t="n">
         <v>-5.0</v>
       </c>
       <c r="D68" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -2369,19 +2321,19 @@
         <v>91</v>
       </c>
       <c r="B69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C69" t="n">
         <v>-5.0</v>
       </c>
       <c r="D69" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -2389,7 +2341,7 @@
         <v>92</v>
       </c>
       <c r="B70" t="n">
-        <v>2.616681845511565</v>
+        <v>2.600984637047155</v>
       </c>
       <c r="C70" t="n">
         <v>-5.0</v>
@@ -2409,19 +2361,19 @@
         <v>93</v>
       </c>
       <c r="B71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C71" t="n">
         <v>-5.0</v>
       </c>
       <c r="D71" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E71" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
@@ -2429,19 +2381,19 @@
         <v>94</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C72" t="n">
         <v>-5.0</v>
       </c>
       <c r="D72" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E72" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
@@ -2449,19 +2401,19 @@
         <v>95</v>
       </c>
       <c r="B73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C73" t="n">
         <v>-5.0</v>
       </c>
       <c r="D73" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +2558,7 @@
         <v>71.0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.6540411411363</v>
+        <v>48.636060471133945</v>
       </c>
       <c r="H4" t="s">
         <v>119</v>
@@ -2669,7 +2621,7 @@
         <v>24.0</v>
       </c>
       <c r="G5" t="n">
-        <v>42.98597790475347</v>
+        <v>42.986147712353926</v>
       </c>
       <c r="H5" t="s">
         <v>120</v>
@@ -2690,34 +2642,34 @@
         <v>137</v>
       </c>
       <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
         <v>138</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>139</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>141</v>
       </c>
-      <c r="R5" t="s">
-        <v>142</v>
-      </c>
-      <c r="S5" t="s">
-        <v>143</v>
-      </c>
       <c r="T5" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="U5" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n">
         <v>3.0</v>
@@ -2732,7 +2684,7 @@
         <v>35.0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.84551354462101</v>
+        <v>35.82814396920392</v>
       </c>
       <c r="H6" t="s">
         <v>120</v>
@@ -2741,46 +2693,46 @@
         <v>120</v>
       </c>
       <c r="J6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
         <v>147</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>148</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
         <v>149</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
         <v>150</v>
       </c>
-      <c r="N6" t="s">
-        <v>151</v>
-      </c>
-      <c r="O6" t="s">
-        <v>152</v>
-      </c>
-      <c r="P6" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>154</v>
-      </c>
-      <c r="R6" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" t="s">
-        <v>156</v>
-      </c>
       <c r="T6" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -2795,7 +2747,7 @@
         <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.628966703566928</v>
+        <v>10.586388482213605</v>
       </c>
       <c r="H7" t="s">
         <v>119</v>
@@ -2804,46 +2756,46 @@
         <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N7" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T7" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -2858,55 +2810,55 @@
         <v>4.0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.27757940471342</v>
+        <v>6.264295936798228</v>
       </c>
       <c r="H8" t="s">
         <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N8" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T8" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U8" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
         <v>6.0</v>
@@ -2921,55 +2873,55 @@
         <v>4.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.844161810854407</v>
+        <v>4.870217255215801</v>
       </c>
       <c r="H9" t="s">
         <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N9" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T9" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
         <v>7.0</v>
@@ -2984,55 +2936,55 @@
         <v>4.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5089904712422268</v>
+        <v>1.5238185599201863</v>
       </c>
       <c r="H10" t="s">
         <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N10" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R10" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T10" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C11" t="n">
         <v>8.0</v>
@@ -3047,55 +2999,55 @@
         <v>4.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2643832002552048</v>
+        <v>0.2635226745603627</v>
       </c>
       <c r="H11" t="s">
         <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N11" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T11" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C12" t="n">
         <v>9.0</v>
@@ -3110,55 +3062,55 @@
         <v>4.0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.0937609398710855</v>
+        <v>3.0960411059296</v>
       </c>
       <c r="H12" t="s">
         <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O12" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C13" t="n">
         <v>10.0</v>
@@ -3173,55 +3125,55 @@
         <v>4.0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.326337876586123</v>
+        <v>4.335156837964943</v>
       </c>
       <c r="H13" t="s">
         <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O13" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T13" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U13" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
         <v>11.0</v>
@@ -3236,55 +3188,55 @@
         <v>4.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0372922543610532</v>
+        <v>1.042279062315302</v>
       </c>
       <c r="H14" t="s">
         <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O14" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T14" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U14" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C15" t="n">
         <v>12.0</v>
@@ -3299,55 +3251,55 @@
         <v>4.0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.917896609205946</v>
+        <v>4.911702969608035</v>
       </c>
       <c r="H15" t="s">
         <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O15" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T15" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U15" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C16" t="n">
         <v>13.0</v>
@@ -3362,55 +3314,55 @@
         <v>4.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.6221829100248246</v>
+        <v>1.6233242162179145</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O16" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T16" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U16" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17"/>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
         <v>14.0</v>
@@ -3425,55 +3377,55 @@
         <v>4.0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.030480344484807</v>
+        <v>3.0278685516808364</v>
       </c>
       <c r="H17" t="s">
         <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O17" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T17" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C18" t="n">
         <v>15.0</v>
@@ -3488,55 +3440,55 @@
         <v>4.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5897351932724221</v>
+        <v>0.589787106045976</v>
       </c>
       <c r="H18" t="s">
         <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O18" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q18" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R18" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S18" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T18" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U18" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C19" t="n">
         <v>16.0</v>
@@ -3551,55 +3503,55 @@
         <v>4.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4073230462047086</v>
+        <v>1.4111830129547502</v>
       </c>
       <c r="H19" t="s">
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O19" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R19" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S19" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T19" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U19" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -3614,7 +3566,7 @@
         <v>4.0</v>
       </c>
       <c r="G20" t="n">
-        <v>14.657933015493581</v>
+        <v>14.674997332758778</v>
       </c>
       <c r="H20" t="s">
         <v>119</v>
@@ -3623,46 +3575,46 @@
         <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="O20" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q20" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="R20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="S20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T20" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C21" t="n">
         <v>17.0</v>
@@ -3677,49 +3629,49 @@
         <v>36.0</v>
       </c>
       <c r="G21" t="n">
-        <v>43.91319899384651</v>
+        <v>43.93330777216332</v>
       </c>
       <c r="H21" t="s">
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="O21" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Q21" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="R21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="S21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="T21" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="U21" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -3770,7 +3722,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -3795,10 +3747,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -3822,10 +3774,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -3849,7 +3801,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
         <v>119</v>
@@ -3876,10 +3828,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -3903,7 +3855,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
         <v>119</v>
@@ -3930,7 +3882,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
@@ -3957,7 +3909,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
         <v>119</v>
@@ -3984,10 +3936,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -4011,7 +3963,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
         <v>119</v>
@@ -4038,10 +3990,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -4078,7 +4030,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -4092,7 +4044,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -4100,90 +4052,90 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -4196,7 +4148,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -4205,97 +4157,97 @@
     <row r="15">
       <c r="A15"/>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D17" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
         <v>252</v>
       </c>
-      <c r="C21" t="s">
-        <v>268</v>
-      </c>
       <c r="D21" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
